--- a/team_b.xlsx
+++ b/team_b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -34,76 +34,70 @@
     <t>reserved</t>
   </si>
   <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>PR Stirling</t>
-  </si>
-  <si>
-    <t>GJ Delany</t>
-  </si>
-  <si>
-    <t>A Balbirnie</t>
-  </si>
-  <si>
-    <t>HT Tector</t>
-  </si>
-  <si>
-    <t>KJ O'Brien</t>
-  </si>
-  <si>
-    <t>CA Young</t>
-  </si>
-  <si>
-    <t>MR Adair</t>
-  </si>
-  <si>
-    <t>J Little</t>
-  </si>
-  <si>
-    <t>C Campher</t>
-  </si>
-  <si>
-    <t>AR McBrine</t>
-  </si>
-  <si>
-    <t>L Tucker</t>
-  </si>
-  <si>
-    <t>WTS Porterfield</t>
-  </si>
-  <si>
-    <t>GC Wilson</t>
-  </si>
-  <si>
-    <t>JA McCollum</t>
-  </si>
-  <si>
-    <t>GH Dockrell</t>
-  </si>
-  <si>
-    <t>Simi Singh</t>
-  </si>
-  <si>
-    <t>SC Getkate</t>
-  </si>
-  <si>
-    <t>BJ McCarthy</t>
-  </si>
-  <si>
-    <t>WB Rankin</t>
-  </si>
-  <si>
-    <t>TJ Murtagh</t>
-  </si>
-  <si>
-    <t>SW Poynter</t>
-  </si>
-  <si>
-    <t>J Cameron-Dow</t>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>M Labuschagne</t>
+  </si>
+  <si>
+    <t>AJ Finch</t>
+  </si>
+  <si>
+    <t>SPD Smith</t>
+  </si>
+  <si>
+    <t>MC Henriques</t>
+  </si>
+  <si>
+    <t>C Green</t>
+  </si>
+  <si>
+    <t>AT Carey</t>
+  </si>
+  <si>
+    <t>GJ Maxwell</t>
+  </si>
+  <si>
+    <t>AC Agar</t>
+  </si>
+  <si>
+    <t>SA Abbott</t>
+  </si>
+  <si>
+    <t>JR Hazlewood</t>
+  </si>
+  <si>
+    <t>A Zampa</t>
+  </si>
+  <si>
+    <t>DA Warner</t>
+  </si>
+  <si>
+    <t>MR Marsh</t>
+  </si>
+  <si>
+    <t>DJM Short</t>
+  </si>
+  <si>
+    <t>JA Richardson</t>
+  </si>
+  <si>
+    <t>KW Richardson</t>
+  </si>
+  <si>
+    <t>MA Starc</t>
+  </si>
+  <si>
+    <t>MP Stoinis</t>
+  </si>
+  <si>
+    <t>PJ Cummins</t>
+  </si>
+  <si>
+    <t>AJ Turner</t>
   </si>
 </sst>
 </file>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,7 +567,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -649,22 +643,6 @@
       </c>
       <c r="B23" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/team_b.xlsx
+++ b/team_b.xlsx
@@ -14,90 +14,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
-  <si>
-    <t>type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>bowler</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>reserved</t>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Marnus Labuschagne</t>
+  </si>
+  <si>
+    <t>Aaron Finch</t>
+  </si>
+  <si>
+    <t>Steven Smith</t>
+  </si>
+  <si>
+    <t>Moises Henriques</t>
+  </si>
+  <si>
+    <t>Cameron Green</t>
+  </si>
+  <si>
+    <t>Alex Carey</t>
+  </si>
+  <si>
+    <t>Glenn Maxwell</t>
+  </si>
+  <si>
+    <t>Ashton Agar</t>
+  </si>
+  <si>
+    <t>Sean Abbott</t>
+  </si>
+  <si>
+    <t>Adam Zampa</t>
+  </si>
+  <si>
+    <t>Josh Hazlewood</t>
+  </si>
+  <si>
+    <t>David Warner</t>
+  </si>
+  <si>
+    <t>Marcus Stoinis</t>
+  </si>
+  <si>
+    <t>Mitchell Marsh</t>
+  </si>
+  <si>
+    <t>Pat Cummins</t>
+  </si>
+  <si>
+    <t>Mitchell Starc</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>M Labuschagne</t>
-  </si>
-  <si>
-    <t>AJ Finch</t>
-  </si>
-  <si>
-    <t>SPD Smith</t>
-  </si>
-  <si>
-    <t>MC Henriques</t>
-  </si>
-  <si>
-    <t>C Green</t>
-  </si>
-  <si>
-    <t>AT Carey</t>
-  </si>
-  <si>
-    <t>GJ Maxwell</t>
-  </si>
-  <si>
-    <t>AC Agar</t>
-  </si>
-  <si>
-    <t>SA Abbott</t>
-  </si>
-  <si>
-    <t>JR Hazlewood</t>
-  </si>
-  <si>
-    <t>A Zampa</t>
-  </si>
-  <si>
-    <t>DA Warner</t>
-  </si>
-  <si>
-    <t>MR Marsh</t>
-  </si>
-  <si>
-    <t>DJM Short</t>
-  </si>
-  <si>
-    <t>JA Richardson</t>
-  </si>
-  <si>
-    <t>KW Richardson</t>
-  </si>
-  <si>
-    <t>MA Starc</t>
-  </si>
-  <si>
-    <t>MP Stoinis</t>
-  </si>
-  <si>
-    <t>PJ Cummins</t>
-  </si>
-  <si>
-    <t>AJ Turner</t>
   </si>
 </sst>
 </file>
@@ -455,194 +449,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>11408</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>11405</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>11403</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>11406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>11404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>11407</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>11402</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
+      <c r="F17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/team_b.xlsx
+++ b/team_b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>team</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
   <si>
     <t>Australia</t>
@@ -449,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,271 +477,322 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>25208</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>25205</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>25203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>25206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>25204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>25207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>25202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>11408</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>11405</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>11403</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>11406</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>11404</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>11407</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>11402</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
